--- a/Exercises/manual_att.xlsx
+++ b/Exercises/manual_att.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/UT-Causal-Inference/Exercises/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B699204F-6FDC-284D-9FC5-82D3777841F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589DABBF-8442-894D-9A12-4EC9574CE1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="50280" windowHeight="27120" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="50280" windowHeight="27120" activeTab="2" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple DiD" sheetId="11" r:id="rId1"/>
     <sheet name="Dynamic ATT" sheetId="8" r:id="rId2"/>
+    <sheet name="CS" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>ATT(1986,t)</t>
   </si>
@@ -124,6 +125,90 @@
   </si>
   <si>
     <t>5.  What are the weights used to calculate ATT 1 vs. ATT 2?</t>
+  </si>
+  <si>
+    <t>Variable: y2 -- constant treatment effects</t>
+  </si>
+  <si>
+    <t>Variable: y -- dynamic treatment effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Constant treatment effects.  Notice, the treatment effect is constant. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gen y2 = firms + n + te*treat + e // parallel trends IN EVERY PERIOD. </t>
+  </si>
+  <si>
+    <t>* Data generating process with heterogeneity over time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gen y = firms + n + treat*te*(year - treat_date + 1) + e </t>
+  </si>
+  <si>
+    <t>DGP: parallel trends AND "no anticipation", but the treatment effects are different in these two DGP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel trends in this DGP is driven by the variable n. </t>
+  </si>
+  <si>
+    <t>ATT per group</t>
+  </si>
+  <si>
+    <t>ATT "Overall"</t>
+  </si>
+  <si>
+    <t>Differences between ATT1 and ATT2 is just which weight we use to calculate that larger aggregate ATT</t>
+  </si>
+  <si>
+    <t>Q: When I run TWFE on these data and estimate the coefficient on treatment, is the coefficient</t>
+  </si>
+  <si>
+    <t>a "reasonable weighted average over the underlying ATT cells"?</t>
+  </si>
+  <si>
+    <t>We just saw two "reasonably weighted ATT": ATT1 used uniform weights</t>
+  </si>
+  <si>
+    <t>ATT2 used equal weights over four ATT(g) values.</t>
+  </si>
+  <si>
+    <t>Positive weights</t>
+  </si>
+  <si>
+    <t>gen y0 = firms + n + e (parallel trend DGP)</t>
+  </si>
+  <si>
+    <t>Delta ATT &gt; 0</t>
+  </si>
+  <si>
+    <t>Delta ATT = 0</t>
+  </si>
+  <si>
+    <t>ESTIMATE USING CS</t>
+  </si>
+  <si>
+    <t>TRUE ATT(g,t)</t>
+  </si>
+  <si>
+    <t>ATT1 used 1/60 as its weight</t>
+  </si>
+  <si>
+    <t>ATT2 used 1/4 as a weight on each ATT(g) which itself used weights that were different per group</t>
+  </si>
+  <si>
+    <t>TWFE is neither of these weights.  Its weights are called "variance weights" and they're based on :</t>
+  </si>
+  <si>
+    <t>* (share of units in a group) x (share of units in the untreated group) x (share of time treated) x (1 - share of time treated) / variance in a residualized treatment variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's different about TWFE weights is that TWFE weights "up" those 2x2s associated with a group treated in the middle of the panel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For us, middle of the panel is 1995. </t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -147,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +269,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -322,11 +413,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,6 +528,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0E2B77-ED0E-4044-A811-AE60B0CE4D8A}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1207,618 +1356,2194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B26958-D2FD-B340-96F0-C0F0E677AC3F}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="61.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="27">
+        <v>1980</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27">
+        <v>1980</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
+        <v>1981</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="27">
+        <v>1981</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
+        <v>1982</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1982</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="27">
+        <v>1983</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1983</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
+        <v>1984</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1984</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>1985</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1985</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
+        <v>1986</v>
+      </c>
+      <c r="B9" s="9">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="27">
+        <v>1986</v>
+      </c>
+      <c r="J9" s="9">
+        <v>10</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
+        <v>1987</v>
+      </c>
+      <c r="B10" s="7">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1987</v>
+      </c>
+      <c r="J10" s="7">
+        <v>10</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
+        <v>1988</v>
+      </c>
+      <c r="B11" s="7">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="27">
+        <v>1988</v>
+      </c>
+      <c r="J11" s="7">
+        <v>10</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
+        <v>1989</v>
+      </c>
+      <c r="B12" s="7">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="27">
+        <v>1989</v>
+      </c>
+      <c r="J12" s="7">
+        <v>10</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <v>1990</v>
+      </c>
+      <c r="B13" s="7">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>1990</v>
+      </c>
+      <c r="J13" s="7">
+        <v>10</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>1991</v>
+      </c>
+      <c r="B14" s="7">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>1991</v>
+      </c>
+      <c r="J14" s="7">
+        <v>10</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <v>1992</v>
+      </c>
+      <c r="B15" s="7">
+        <v>70</v>
+      </c>
+      <c r="C15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="27">
+        <v>1992</v>
+      </c>
+      <c r="J15" s="7">
+        <v>10</v>
+      </c>
+      <c r="K15" s="9">
+        <v>8</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <v>1993</v>
+      </c>
+      <c r="B16" s="7">
+        <v>80</v>
+      </c>
+      <c r="C16" s="7">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="27">
+        <v>1993</v>
+      </c>
+      <c r="J16" s="7">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7">
+        <v>8</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <v>1994</v>
+      </c>
+      <c r="B17" s="7">
+        <v>90</v>
+      </c>
+      <c r="C17" s="7">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="27">
+        <v>1994</v>
+      </c>
+      <c r="J17" s="7">
+        <v>10</v>
+      </c>
+      <c r="K17" s="7">
+        <v>8</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
+        <v>1995</v>
+      </c>
+      <c r="B18" s="7">
+        <v>100</v>
+      </c>
+      <c r="C18" s="7">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="27">
+        <v>1995</v>
+      </c>
+      <c r="J18" s="7">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7">
+        <v>8</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
+        <v>1996</v>
+      </c>
+      <c r="B19" s="7">
+        <v>110</v>
+      </c>
+      <c r="C19" s="7">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="27">
+        <v>1996</v>
+      </c>
+      <c r="J19" s="7">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7">
+        <v>8</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>1997</v>
+      </c>
+      <c r="B20" s="7">
+        <v>120</v>
+      </c>
+      <c r="C20" s="7">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="27">
+        <v>1997</v>
+      </c>
+      <c r="J20" s="7">
+        <v>10</v>
+      </c>
+      <c r="K20" s="7">
+        <v>8</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="27">
+        <v>1998</v>
+      </c>
+      <c r="B21" s="7">
+        <v>130</v>
+      </c>
+      <c r="C21" s="7">
+        <v>56</v>
+      </c>
+      <c r="D21" s="9">
+        <v>6</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="27">
+        <v>1998</v>
+      </c>
+      <c r="J21" s="7">
+        <v>10</v>
+      </c>
+      <c r="K21" s="7">
+        <v>8</v>
+      </c>
+      <c r="L21" s="9">
+        <v>6</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="27">
+        <v>1999</v>
+      </c>
+      <c r="B22" s="7">
+        <v>140</v>
+      </c>
+      <c r="C22" s="7">
+        <v>64</v>
+      </c>
+      <c r="D22" s="7">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="27">
+        <v>1999</v>
+      </c>
+      <c r="J22" s="7">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7">
+        <v>8</v>
+      </c>
+      <c r="L22" s="7">
+        <v>6</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="27">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="7">
+        <v>150</v>
+      </c>
+      <c r="C23" s="7">
+        <v>72</v>
+      </c>
+      <c r="D23" s="7">
+        <v>18</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="27">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="7">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7">
+        <v>8</v>
+      </c>
+      <c r="L23" s="7">
+        <v>6</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="27">
+        <v>2001</v>
+      </c>
+      <c r="B24" s="7">
+        <v>160</v>
+      </c>
+      <c r="C24" s="7">
+        <v>80</v>
+      </c>
+      <c r="D24" s="7">
+        <v>24</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="27">
+        <v>2001</v>
+      </c>
+      <c r="J24" s="7">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7">
+        <v>8</v>
+      </c>
+      <c r="L24" s="7">
+        <v>6</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="27">
+        <v>2002</v>
+      </c>
+      <c r="B25" s="7">
+        <v>170</v>
+      </c>
+      <c r="C25" s="7">
+        <v>88</v>
+      </c>
+      <c r="D25" s="7">
+        <v>30</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="27">
+        <v>2002</v>
+      </c>
+      <c r="J25" s="7">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7">
+        <v>8</v>
+      </c>
+      <c r="L25" s="7">
+        <v>6</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>2003</v>
+      </c>
+      <c r="B26" s="7">
+        <v>180</v>
+      </c>
+      <c r="C26" s="7">
+        <v>96</v>
+      </c>
+      <c r="D26" s="7">
+        <v>36</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="27">
+        <v>2003</v>
+      </c>
+      <c r="J26" s="7">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7">
+        <v>8</v>
+      </c>
+      <c r="L26" s="7">
+        <v>6</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="27">
+        <v>2004</v>
+      </c>
+      <c r="B27" s="7">
+        <v>190</v>
+      </c>
+      <c r="C27" s="7">
+        <v>104</v>
+      </c>
+      <c r="D27" s="7">
+        <v>42</v>
+      </c>
+      <c r="E27" s="9">
+        <v>4</v>
+      </c>
+      <c r="I27" s="27">
+        <v>2004</v>
+      </c>
+      <c r="J27" s="7">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7">
+        <v>8</v>
+      </c>
+      <c r="L27" s="7">
+        <v>6</v>
+      </c>
+      <c r="M27" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="27">
+        <v>2005</v>
+      </c>
+      <c r="B28" s="7">
+        <v>200</v>
+      </c>
+      <c r="C28" s="7">
+        <v>112</v>
+      </c>
+      <c r="D28" s="7">
+        <v>48</v>
+      </c>
+      <c r="E28" s="7">
+        <v>8</v>
+      </c>
+      <c r="I28" s="27">
+        <v>2005</v>
+      </c>
+      <c r="J28" s="7">
+        <v>10</v>
+      </c>
+      <c r="K28" s="7">
+        <v>8</v>
+      </c>
+      <c r="L28" s="7">
+        <v>6</v>
+      </c>
+      <c r="M28" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="27">
+        <v>2006</v>
+      </c>
+      <c r="B29" s="7">
+        <v>210</v>
+      </c>
+      <c r="C29" s="7">
+        <v>120</v>
+      </c>
+      <c r="D29" s="7">
+        <v>54</v>
+      </c>
+      <c r="E29" s="7">
+        <v>12</v>
+      </c>
+      <c r="I29" s="27">
+        <v>2006</v>
+      </c>
+      <c r="J29" s="7">
+        <v>10</v>
+      </c>
+      <c r="K29" s="7">
+        <v>8</v>
+      </c>
+      <c r="L29" s="7">
+        <v>6</v>
+      </c>
+      <c r="M29" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="27">
+        <v>2007</v>
+      </c>
+      <c r="B30" s="7">
+        <v>220</v>
+      </c>
+      <c r="C30" s="7">
+        <v>128</v>
+      </c>
+      <c r="D30" s="7">
+        <v>60</v>
+      </c>
+      <c r="E30" s="7">
+        <v>16</v>
+      </c>
+      <c r="I30" s="27">
+        <v>2007</v>
+      </c>
+      <c r="J30" s="7">
+        <v>10</v>
+      </c>
+      <c r="K30" s="7">
+        <v>8</v>
+      </c>
+      <c r="L30" s="7">
+        <v>6</v>
+      </c>
+      <c r="M30" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="27">
+        <v>2008</v>
+      </c>
+      <c r="B31" s="7">
+        <v>230</v>
+      </c>
+      <c r="C31" s="7">
+        <v>136</v>
+      </c>
+      <c r="D31" s="7">
+        <v>66</v>
+      </c>
+      <c r="E31" s="7">
+        <v>20</v>
+      </c>
+      <c r="I31" s="27">
+        <v>2008</v>
+      </c>
+      <c r="J31" s="7">
+        <v>10</v>
+      </c>
+      <c r="K31" s="7">
+        <v>8</v>
+      </c>
+      <c r="L31" s="7">
+        <v>6</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>2009</v>
+      </c>
+      <c r="B32" s="8">
+        <v>240</v>
+      </c>
+      <c r="C32" s="8">
+        <v>144</v>
+      </c>
+      <c r="D32" s="8">
+        <v>72</v>
+      </c>
+      <c r="E32" s="8">
+        <v>24</v>
+      </c>
+      <c r="I32" s="28">
+        <v>2009</v>
+      </c>
+      <c r="J32" s="7">
+        <v>10</v>
+      </c>
+      <c r="K32" s="7">
+        <v>8</v>
+      </c>
+      <c r="L32" s="7">
+        <v>6</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="11">
+        <f>AVERAGE(B9:B32)</f>
+        <v>125</v>
+      </c>
+      <c r="C33" s="12">
+        <f>AVERAGE(C15:C32)</f>
+        <v>76</v>
+      </c>
+      <c r="D33" s="12">
+        <f>AVERAGE(D21:D32)</f>
+        <v>39</v>
+      </c>
+      <c r="E33" s="13">
+        <f>AVERAGE(E27:E32)</f>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="11">
+        <f>AVERAGE(J9:J32)</f>
+        <v>10</v>
+      </c>
+      <c r="K33" s="12">
+        <f>AVERAGE(K15:K32)</f>
+        <v>8</v>
+      </c>
+      <c r="L33" s="12">
+        <f>AVERAGE(L21:L32)</f>
+        <v>6</v>
+      </c>
+      <c r="M33" s="13">
+        <f>AVERAGE(M27:M32)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="33">
+        <f>AVERAGE(B9:B32,C15:C32,D21:D32,E27:E32)</f>
+        <v>82</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="33">
+        <f>AVERAGE(J9:J32,K15:K32,L21:L32,M27:M32)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="31">
+        <f>AVERAGE(B33:E33)</f>
+        <v>63.5</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="31">
+        <f>AVERAGE(J33:M33)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1595D049-055E-E449-A2F8-B219CF235FD1}">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+      <c r="G2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="27">
         <v>1980</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
+        <v>1980</v>
+      </c>
+      <c r="H3" s="44">
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
+        <v>0</v>
+      </c>
+      <c r="J3" s="34">
+        <v>0</v>
+      </c>
+      <c r="K3" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
         <v>1981</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27">
+        <v>1981</v>
+      </c>
+      <c r="H4" s="45">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
         <v>1982</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1982</v>
+      </c>
+      <c r="H5" s="45">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="27">
         <v>1983</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
+        <v>1983</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
         <v>1984</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>1984</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
         <v>1985</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="27">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27">
+        <v>1985</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
         <v>1986</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B9" s="9">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="27">
+      <c r="C9" s="34">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
+        <v>1986</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
         <v>1987</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="7">
         <v>20</v>
       </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="27">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1987</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
         <v>1988</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>30</v>
       </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="27">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27">
+        <v>1988</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
         <v>1989</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B12" s="7">
         <v>40</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27">
+        <v>1989</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
         <v>1990</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="7">
         <v>50</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <v>1990</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <v>1991</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="8">
         <v>60</v>
       </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+      <c r="C14" s="36">
+        <v>0</v>
+      </c>
+      <c r="D14" s="36">
+        <v>0</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27">
+        <v>1991</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
         <v>1992</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B15" s="9">
         <v>70</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C15" s="9">
         <v>8</v>
       </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="27">
+      <c r="D15" s="34">
+        <v>0</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27">
+        <v>1992</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
         <v>1993</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B16" s="7">
         <v>80</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C16" s="7">
         <v>16</v>
       </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="27">
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27">
+        <v>1993</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
         <v>1994</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17" s="7">
         <v>90</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C17" s="7">
         <v>24</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27">
+        <v>1994</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
         <v>1995</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B18" s="7">
         <v>100</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C18" s="7">
         <v>32</v>
       </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="27">
+        <v>1995</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="27">
         <v>1996</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B19" s="7">
         <v>110</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
         <v>40</v>
       </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="27">
+        <v>1996</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
         <v>1997</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B20" s="8">
         <v>120</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C20" s="8">
         <v>48</v>
       </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="27">
+      <c r="D20" s="36">
+        <v>0</v>
+      </c>
+      <c r="E20" s="37">
+        <v>0</v>
+      </c>
+      <c r="G20" s="27">
+        <v>1997</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="36">
+        <v>0</v>
+      </c>
+      <c r="K20" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="27">
         <v>1998</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B21" s="9">
         <v>130</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="9">
         <v>56</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>6</v>
       </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="27">
+      <c r="E21" s="35">
+        <v>0</v>
+      </c>
+      <c r="G21" s="27">
+        <v>1998</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="27">
         <v>1999</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B22" s="7">
         <v>140</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="7">
         <v>64</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="7">
         <v>12</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="27">
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="27">
+        <v>1999</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="27">
         <v>2000</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B23" s="7">
         <v>150</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C23" s="7">
         <v>72</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="7">
         <v>18</v>
       </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="27">
+        <v>2000</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="27">
         <v>2001</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B24" s="7">
         <v>160</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C24" s="7">
         <v>80</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D24" s="7">
         <v>24</v>
       </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="27">
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="27">
+        <v>2001</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="27">
         <v>2002</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B25" s="7">
         <v>170</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C25" s="7">
         <v>88</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>30</v>
       </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="27">
+        <v>2002</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
         <v>2003</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B26" s="7">
         <v>180</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C26" s="7">
         <v>96</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="7">
         <v>36</v>
       </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="27">
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="27">
+        <v>2003</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42">
         <v>2004</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B27" s="43">
         <v>190</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C27" s="43">
         <v>104</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D27" s="43">
         <v>42</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="43">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="27">
+      <c r="G27" s="27">
+        <v>2004</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
         <v>2005</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B28" s="38">
         <v>200</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C28" s="38">
         <v>112</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="38">
         <v>48</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E28" s="38">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
+      <c r="G28" s="27">
+        <v>2005</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
         <v>2006</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B29" s="38">
         <v>210</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C29" s="38">
         <v>120</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D29" s="38">
         <v>54</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E29" s="38">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="27">
+      <c r="G29" s="27">
+        <v>2006</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
         <v>2007</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B30" s="38">
         <v>220</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C30" s="38">
         <v>128</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D30" s="38">
         <v>60</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="38">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="27">
+      <c r="G30" s="27">
+        <v>2007</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
         <v>2008</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B31" s="38">
         <v>230</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C31" s="38">
         <v>136</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="38">
         <v>66</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="38">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="G31" s="27">
+        <v>2008</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41">
         <v>2009</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B32" s="39">
         <v>240</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C32" s="39">
         <v>144</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="39">
         <v>72</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="39">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="G32" s="28">
+        <v>2009</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="B33" s="11">
+        <f>AVERAGE(B9:B26)</f>
+        <v>95</v>
+      </c>
+      <c r="C33" s="12">
+        <f>AVERAGE(C15:C26)</f>
+        <v>52</v>
+      </c>
+      <c r="D33" s="12">
+        <f>AVERAGE(D21:D26)</f>
+        <v>21</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="11" t="e">
+        <f>AVERAGE(H9:H32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="12" t="e">
+        <f>AVERAGE(I15:I32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="12" t="e">
+        <f>AVERAGE(J21:J32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="13" t="e">
+        <f>AVERAGE(K27:K32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="33"/>
-    </row>
-    <row r="34" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="B34" s="33">
+        <f>AVERAGE(B9:B26,C15:C26,D21:D26)</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="33" t="e">
+        <f>AVERAGE(H9:H32,I15:I32,J21:J32,K27:K32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="31"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="31">
+        <f>AVERAGE(B33:D33)</f>
+        <v>56</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="31" t="e">
+        <f>AVERAGE(H33:K33)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
